--- a/Project (UiPath)/ToborInc-Files/ReportLocal.xlsx
+++ b/Project (UiPath)/ToborInc-Files/ReportLocal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Workspace\SFIA Project 2\Project (UiPath)\ToborInc-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE58E61-615C-479F-8B69-F0FA2074160A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD80B9-906C-494B-A8DF-68E080A145B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preformance Report (Process 1)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="255">
   <si>
     <t>Date/Time</t>
   </si>
@@ -40,42 +40,240 @@
     <t>Extra Information</t>
   </si>
   <si>
-    <t>drg</t>
+    <t>Starting To Load Queue</t>
+  </si>
+  <si>
+    <t>Starting...</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Loaded Queue</t>
+  </si>
+  <si>
+    <t>Compleated</t>
+  </si>
+  <si>
+    <t>Queue process has been compleated</t>
+  </si>
+  <si>
+    <t>Loading Articles</t>
+  </si>
+  <si>
+    <t>Starting to Load all Articles</t>
+  </si>
+  <si>
+    <t>Adding User Hang to Queue</t>
+  </si>
+  <si>
+    <t>Adding User</t>
+  </si>
+  <si>
+    <t>User has been added to Send_Email Queue</t>
+  </si>
+  <si>
+    <t>Adding User Lynn to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Elvie to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Phyllis to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Mitzi to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Ma to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Luella to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Charissa to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Roberto to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Lucie to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Farrah to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Bart to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Roseanna to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Burt to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Bulah to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Lachelle to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Maurita to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Annis to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Tawna to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Sharron to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Terese to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Arnita to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Theressa to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Mabelle to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Kira to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Ling to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Kiley to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Josef to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Rubye to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Grayce to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Colleen to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Aletha to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Marquita to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Emery to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Kandis to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Kanisha to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Dania to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Alene to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Anisha to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Mechelle to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Layla to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Shad to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Joesph to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Reiko to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Kenia to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Dean to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Larita to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Lovella to Queue</t>
+  </si>
+  <si>
+    <t>Adding User Jeffry to Queue</t>
+  </si>
+  <si>
+    <t>Loading Articles (Tech)</t>
+  </si>
+  <si>
+    <t>Initilising Loading Process</t>
+  </si>
+  <si>
+    <t>Loading Article 1 (Tech)</t>
+  </si>
+  <si>
+    <t>Attempting To Load Article 1 (Tech)</t>
+  </si>
+  <si>
+    <t>Failed To Load Article 1 (Tech)</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Error has been encountered when loading up Article</t>
+  </si>
+  <si>
+    <t>Loading Article 2 (Tech)</t>
+  </si>
+  <si>
+    <t>Attempting To Load Article</t>
+  </si>
+  <si>
+    <t>Article 2 Loaded (Tech)</t>
+  </si>
+  <si>
+    <t>Loaded</t>
+  </si>
+  <si>
+    <t>Article has successfully Loaded!</t>
+  </si>
+  <si>
+    <t>Loading Article 3 (Tech)</t>
+  </si>
+  <si>
+    <t>Article 3 Loaded (Tech)</t>
+  </si>
+  <si>
+    <t>Loaded Articles (Tech)</t>
+  </si>
+  <si>
+    <t>Articles have been loaded</t>
   </si>
   <si>
     <t>Loading Articles (Sport)</t>
   </si>
   <si>
-    <t>Starting...</t>
-  </si>
-  <si>
-    <t>Initilising Loading Process</t>
-  </si>
-  <si>
     <t>Loading Article 1 (Sport)</t>
   </si>
   <si>
-    <t>Attempting To Load Article</t>
-  </si>
-  <si>
     <t>Article 1 Loaded (Sport)</t>
   </si>
   <si>
-    <t>Loaded</t>
-  </si>
-  <si>
-    <t>Article has successfully Loaded!</t>
-  </si>
-  <si>
-    <t>Article 1 Failed (Sport)</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Article has been previously used!</t>
-  </si>
-  <si>
     <t>Loading Article 2 (Sport)</t>
   </si>
   <si>
@@ -86,6 +284,513 @@
   </si>
   <si>
     <t>Article 3 Loaded (Sport)</t>
+  </si>
+  <si>
+    <t>Loaded Articles (Sport)</t>
+  </si>
+  <si>
+    <t>Loading Articles (Hobbies)</t>
+  </si>
+  <si>
+    <t>Loading Article 1 (Hobbies)</t>
+  </si>
+  <si>
+    <t>Article 1 Loaded (Hobbies)</t>
+  </si>
+  <si>
+    <t>Loading Article 2 (Hobbies)</t>
+  </si>
+  <si>
+    <t>Article 2 Loaded (Hobbies)</t>
+  </si>
+  <si>
+    <t>Loading Article 3 (Hobbies)</t>
+  </si>
+  <si>
+    <t>Article 3 Loaded (Hobbies)</t>
+  </si>
+  <si>
+    <t>Trying to Close Chrome</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Chrome has been Closed</t>
+  </si>
+  <si>
+    <t>Loaded Articles (Hobbies)</t>
+  </si>
+  <si>
+    <t>Compleated Loading All Articles</t>
+  </si>
+  <si>
+    <t>Checking Queue Items</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Checking How Many Items In Queue</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 50</t>
+  </si>
+  <si>
+    <t>Loading User: Hang Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Hang</t>
+  </si>
+  <si>
+    <t>Email has been Successfully Sent!</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 49</t>
+  </si>
+  <si>
+    <t>Loading User: Lynn Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Lynn</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 48</t>
+  </si>
+  <si>
+    <t>Loading User: Elvie Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Elvie</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 47</t>
+  </si>
+  <si>
+    <t>Loading User: Phyllis Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Phyllis</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 46</t>
+  </si>
+  <si>
+    <t>Loading User: Mitzi Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Mitzi</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 45</t>
+  </si>
+  <si>
+    <t>Loading User: Ma Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Ma</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 44</t>
+  </si>
+  <si>
+    <t>Loading User: Luella Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Luella</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 43</t>
+  </si>
+  <si>
+    <t>Loading User: Charissa Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Charissa</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 42</t>
+  </si>
+  <si>
+    <t>Loading User: Roberto Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Roberto</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 41</t>
+  </si>
+  <si>
+    <t>Loading User: Lucie Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Lucie</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 40</t>
+  </si>
+  <si>
+    <t>Loading User: Farrah Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Farrah</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 39</t>
+  </si>
+  <si>
+    <t>Loading User: Bart Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Bart</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 38</t>
+  </si>
+  <si>
+    <t>Loading User: Roseanna Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Roseanna</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 37</t>
+  </si>
+  <si>
+    <t>Loading User: Burt Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Burt</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 36</t>
+  </si>
+  <si>
+    <t>Loading User: Bulah Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Bulah</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 35</t>
+  </si>
+  <si>
+    <t>Loading User: Lachelle Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Lachelle</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 34</t>
+  </si>
+  <si>
+    <t>Loading User: Maurita Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Maurita</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 33</t>
+  </si>
+  <si>
+    <t>Loading User: Annis Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Annis</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 32</t>
+  </si>
+  <si>
+    <t>Loading User: Tawna Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Tawna</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 31</t>
+  </si>
+  <si>
+    <t>Loading User: Sharron Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Sharron</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 30</t>
+  </si>
+  <si>
+    <t>Loading User: Terese Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Terese</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 29</t>
+  </si>
+  <si>
+    <t>Loading User: Arnita Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Arnita</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 28</t>
+  </si>
+  <si>
+    <t>Loading User: Theressa Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Theressa</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 27</t>
+  </si>
+  <si>
+    <t>Loading User: Mabelle Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Mabelle</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 26</t>
+  </si>
+  <si>
+    <t>Loading User: Kira Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Kira</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 25</t>
+  </si>
+  <si>
+    <t>Loading User: Ling Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Ling</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 24</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 23</t>
+  </si>
+  <si>
+    <t>Loading User: Kiley Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Kiley</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 22</t>
+  </si>
+  <si>
+    <t>Loading User: Josef Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Josef</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 21</t>
+  </si>
+  <si>
+    <t>Loading User: Rubye Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Rubye</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 20</t>
+  </si>
+  <si>
+    <t>Loading User: Grayce Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Grayce</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 19</t>
+  </si>
+  <si>
+    <t>Loading User: Colleen Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Colleen</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 18</t>
+  </si>
+  <si>
+    <t>Loading User: Aletha Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Aletha</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 17</t>
+  </si>
+  <si>
+    <t>Loading User: Marquita Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Marquita</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 16</t>
+  </si>
+  <si>
+    <t>Loading User: Emery Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Emery</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 15</t>
+  </si>
+  <si>
+    <t>Loading User: Kandis Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Kandis</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 14</t>
+  </si>
+  <si>
+    <t>Loading User: Kanisha Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Kanisha</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 13</t>
+  </si>
+  <si>
+    <t>Loading User: Dania Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Dania</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 12</t>
+  </si>
+  <si>
+    <t>Loading User: Alene Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Alene</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 11</t>
+  </si>
+  <si>
+    <t>Loading User: Anisha Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Anisha</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 10</t>
+  </si>
+  <si>
+    <t>Loading User: Mechelle Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Mechelle</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 9</t>
+  </si>
+  <si>
+    <t>Loading User: Layla Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Layla</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 8</t>
+  </si>
+  <si>
+    <t>Loading User: Shad Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Shad</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 7</t>
+  </si>
+  <si>
+    <t>Loading User: Joesph Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Joesph</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 6</t>
+  </si>
+  <si>
+    <t>Loading User: Reiko Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Reiko</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 5</t>
+  </si>
+  <si>
+    <t>Loading User: Kenia Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Kenia</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 4</t>
+  </si>
+  <si>
+    <t>Loading User: Dean Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Dean</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 3</t>
+  </si>
+  <si>
+    <t>Loading User: Larita Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Larita</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 2</t>
+  </si>
+  <si>
+    <t>Loading User: Lovella Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Lovella</t>
+  </si>
+  <si>
+    <t>Queue Items Found! Remaining: 1</t>
+  </si>
+  <si>
+    <t>Loading User: Jeffry Information!</t>
+  </si>
+  <si>
+    <t>Sending Email Too: Jeffry</t>
+  </si>
+  <si>
+    <t>Zero Items in Queue</t>
+  </si>
+  <si>
+    <t>Process 2 Ended</t>
+  </si>
+  <si>
+    <t>Successfully</t>
   </si>
 </sst>
 </file>
@@ -437,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0670FE8E-5E75-4B80-A23D-8A45B49A2263}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,81 +1169,84 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44011.122071759259</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44011.087210648147</v>
+        <v>44011.122083333335</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44011.087210648147</v>
+        <v>44011.123182870368</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44011.087291666663</v>
+        <v>44011.123206018521</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44011.088842592595</v>
+        <v>44011.123287037037</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44011.088842592595</v>
+        <v>44011.123310185183</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -546,72 +1254,3992 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44011.088912037034</v>
+        <v>44011.123310185183</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44011.088923611111</v>
+        <v>44011.124016203707</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44011.089016203703</v>
+        <v>44011.124895833331</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44011.08902777778</v>
+        <v>44011.124895833331</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44011.089131944442</v>
+        <v>44011.124907407408</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44011.124907407408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44011.124918981484</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44011.124918981484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44011.124918981484</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44011.124930555554</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44011.124930555554</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44011.124930555554</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44011.124942129631</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44011.124942129631</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44011.1249537037</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44011.1249537037</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44011.1249537037</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44011.124965277777</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44011.124965277777</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44011.124965277777</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44011.124976851854</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44011.124976851854</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44011.124976851854</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44011.124988425923</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44011.124988425923</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44011.125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44011.125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44011.125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44011.125011574077</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44011.125011574077</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44011.125023148146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44011.125023148146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44011.125023148146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44011.125034722223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44011.125034722223</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44011.125034722223</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44011.1250462963</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44011.1250462963</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44011.1250462963</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44011.125057870369</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44011.125057870369</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44011.125069444446</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44011.125069444446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44011.125069444446</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44011.125081018516</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44011.125081018516</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44011.125081018516</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44011.125092592592</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44011.125092592592</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44011.125104166669</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44011.125104166669</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44011.125104166669</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44011.125115740739</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44011.125115740739</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44011.125115740739</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44011.125555555554</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44011.125567129631</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44011.125578703701</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44011.125578703701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44011.125625000001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44011.125625000001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44011.125671296293</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44011.125671296293</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44011.125740740739</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44011.125740740739</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44011.125763888886</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44011.125775462962</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44011.125810185185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44011.125810185185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44011.125844907408</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44011.125844907408</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44011.125914351855</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44011.125914351855</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44011.125949074078</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44011.125949074078</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44011.126006944447</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44011.126006944447</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44011.12604166667</v>
+      </c>
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44011.12605324074</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44011.126400462963</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44011.126400462963</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44011.126400462963</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44011.12641203704</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44011.12641203704</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44011.12641203704</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44011.126423611109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44011.126423611109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44011.126435185186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44011.126435185186</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44011.126435185186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44011.126446759263</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44011.126446759263</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44011.126446759263</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44011.126458333332</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44011.126458333332</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44011.126469907409</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44011.126469907409</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44011.126469907409</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44011.126481481479</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44011.126481481479</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44011.126481481479</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44011.126493055555</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44011.126493055555</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44011.126493055555</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44011.126504629632</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44011.126504629632</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44011.126516203702</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44011.126516203702</v>
+      </c>
+      <c r="B115" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44011.126516203702</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44011.126527777778</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44011.126527777778</v>
+      </c>
+      <c r="B118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44011.126527777778</v>
+      </c>
+      <c r="B119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44011.126539351855</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44011.126539351855</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44011.126550925925</v>
+      </c>
+      <c r="B122" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44011.126550925925</v>
+      </c>
+      <c r="B123" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44011.126550925925</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44011.126550925925</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44011.126562500001</v>
+      </c>
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44011.126562500001</v>
+      </c>
+      <c r="B127" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44011.126574074071</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44011.126574074071</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44011.126585648148</v>
+      </c>
+      <c r="B130" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44011.126585648148</v>
+      </c>
+      <c r="B131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44011.126585648148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44011.126585648148</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44011.126597222225</v>
+      </c>
+      <c r="B134" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44011.126597222225</v>
+      </c>
+      <c r="B135" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44011.126608796294</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44011.126608796294</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44011.126620370371</v>
+      </c>
+      <c r="B138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44011.126620370371</v>
+      </c>
+      <c r="B139" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44011.126620370371</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44011.126620370371</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44011.126631944448</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44011.126631944448</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44011.126643518517</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44011.126643518517</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>44011.126655092594</v>
+      </c>
+      <c r="B146" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44011.126655092594</v>
+      </c>
+      <c r="B147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>44011.126655092594</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>44011.126655092594</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>44011.126666666663</v>
+      </c>
+      <c r="B150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>44011.126666666663</v>
+      </c>
+      <c r="B151" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44011.12667824074</v>
+      </c>
+      <c r="B152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44011.12667824074</v>
+      </c>
+      <c r="B153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44011.126689814817</v>
+      </c>
+      <c r="B154" t="s">
+        <v>100</v>
+      </c>
+      <c r="C154" t="s">
+        <v>101</v>
+      </c>
+      <c r="D154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44011.126689814817</v>
+      </c>
+      <c r="B155" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44011.126689814817</v>
+      </c>
+      <c r="B156" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44011.126689814817</v>
+      </c>
+      <c r="B157" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44011.126701388886</v>
+      </c>
+      <c r="B158" t="s">
+        <v>100</v>
+      </c>
+      <c r="C158" t="s">
+        <v>101</v>
+      </c>
+      <c r="D158" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44011.126701388886</v>
+      </c>
+      <c r="B159" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44011.126712962963</v>
+      </c>
+      <c r="B160" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44011.126712962963</v>
+      </c>
+      <c r="B161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44011.12672453704</v>
+      </c>
+      <c r="B162" t="s">
+        <v>100</v>
+      </c>
+      <c r="C162" t="s">
+        <v>101</v>
+      </c>
+      <c r="D162" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44011.12672453704</v>
+      </c>
+      <c r="B163" t="s">
+        <v>100</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44011.12672453704</v>
+      </c>
+      <c r="B164" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44011.12672453704</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44011.126736111109</v>
+      </c>
+      <c r="B166" t="s">
+        <v>100</v>
+      </c>
+      <c r="C166" t="s">
+        <v>101</v>
+      </c>
+      <c r="D166" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44011.126736111109</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44011.126736111109</v>
+      </c>
+      <c r="B168" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44011.126747685186</v>
+      </c>
+      <c r="B169" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44011.126747685186</v>
+      </c>
+      <c r="B170" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" t="s">
+        <v>101</v>
+      </c>
+      <c r="D170" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44011.126747685186</v>
+      </c>
+      <c r="B171" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44011.126759259256</v>
+      </c>
+      <c r="B172" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44011.126759259256</v>
+      </c>
+      <c r="B173" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44011.126770833333</v>
+      </c>
+      <c r="B174" t="s">
+        <v>100</v>
+      </c>
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44011.126770833333</v>
+      </c>
+      <c r="B175" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44011.126770833333</v>
+      </c>
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44011.126782407409</v>
+      </c>
+      <c r="B177" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44011.126782407409</v>
+      </c>
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44011.126782407409</v>
+      </c>
+      <c r="B179" t="s">
+        <v>100</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44011.126793981479</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44011.126793981479</v>
+      </c>
+      <c r="B181" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44011.126805555556</v>
+      </c>
+      <c r="B182" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" t="s">
+        <v>101</v>
+      </c>
+      <c r="D182" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44011.126805555556</v>
+      </c>
+      <c r="B183" t="s">
+        <v>100</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44011.126805555556</v>
+      </c>
+      <c r="B184" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44011.126817129632</v>
+      </c>
+      <c r="B185" t="s">
+        <v>175</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44011.126817129632</v>
+      </c>
+      <c r="B186" t="s">
+        <v>100</v>
+      </c>
+      <c r="C186" t="s">
+        <v>101</v>
+      </c>
+      <c r="D186" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44011.126817129632</v>
+      </c>
+      <c r="B187" t="s">
+        <v>100</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44011.126828703702</v>
+      </c>
+      <c r="B188" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44011.126828703702</v>
+      </c>
+      <c r="B189" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44011.126840277779</v>
+      </c>
+      <c r="B190" t="s">
+        <v>100</v>
+      </c>
+      <c r="C190" t="s">
+        <v>101</v>
+      </c>
+      <c r="D190" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44011.126840277779</v>
+      </c>
+      <c r="B191" t="s">
+        <v>100</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44011.126840277779</v>
+      </c>
+      <c r="B192" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44011.126840277779</v>
+      </c>
+      <c r="B193" t="s">
+        <v>181</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44011.126851851855</v>
+      </c>
+      <c r="B194" t="s">
+        <v>100</v>
+      </c>
+      <c r="C194" t="s">
+        <v>101</v>
+      </c>
+      <c r="D194" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44011.126851851855</v>
+      </c>
+      <c r="B195" t="s">
+        <v>100</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44011.126863425925</v>
+      </c>
+      <c r="B196" t="s">
+        <v>135</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44011.126863425925</v>
+      </c>
+      <c r="B197" t="s">
+        <v>136</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44011.126875000002</v>
+      </c>
+      <c r="B198" t="s">
+        <v>100</v>
+      </c>
+      <c r="C198" t="s">
+        <v>101</v>
+      </c>
+      <c r="D198" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44011.126875000002</v>
+      </c>
+      <c r="B199" t="s">
+        <v>100</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44011.126875000002</v>
+      </c>
+      <c r="B200" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44011.126875000002</v>
+      </c>
+      <c r="B201" t="s">
+        <v>185</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44011.126886574071</v>
+      </c>
+      <c r="B202" t="s">
+        <v>100</v>
+      </c>
+      <c r="C202" t="s">
+        <v>101</v>
+      </c>
+      <c r="D202" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44011.126886574071</v>
+      </c>
+      <c r="B203" t="s">
+        <v>100</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44011.126898148148</v>
+      </c>
+      <c r="B204" t="s">
+        <v>187</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44011.126898148148</v>
+      </c>
+      <c r="B205" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44011.126898148148</v>
+      </c>
+      <c r="B206" t="s">
+        <v>100</v>
+      </c>
+      <c r="C206" t="s">
+        <v>101</v>
+      </c>
+      <c r="D206" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44011.126909722225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>100</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44011.126909722225</v>
+      </c>
+      <c r="B208" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44011.126909722225</v>
+      </c>
+      <c r="B209" t="s">
+        <v>191</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44011.126921296294</v>
+      </c>
+      <c r="B210" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" t="s">
+        <v>101</v>
+      </c>
+      <c r="D210" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44011.126921296294</v>
+      </c>
+      <c r="B211" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44011.126921296294</v>
+      </c>
+      <c r="B212" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44011.126932870371</v>
+      </c>
+      <c r="B213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44011.126932870371</v>
+      </c>
+      <c r="B214" t="s">
+        <v>100</v>
+      </c>
+      <c r="C214" t="s">
+        <v>101</v>
+      </c>
+      <c r="D214" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44011.126932870371</v>
+      </c>
+      <c r="B215" t="s">
+        <v>100</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44011.126944444448</v>
+      </c>
+      <c r="B216" t="s">
+        <v>196</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44011.126944444448</v>
+      </c>
+      <c r="B217" t="s">
+        <v>197</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>44011.126956018517</v>
+      </c>
+      <c r="B218" t="s">
+        <v>100</v>
+      </c>
+      <c r="C218" t="s">
+        <v>101</v>
+      </c>
+      <c r="D218" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44011.126956018517</v>
+      </c>
+      <c r="B219" t="s">
+        <v>100</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44011.126956018517</v>
+      </c>
+      <c r="B220" t="s">
+        <v>199</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44011.126956018517</v>
+      </c>
+      <c r="B221" t="s">
+        <v>200</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44011.126967592594</v>
+      </c>
+      <c r="B222" t="s">
+        <v>100</v>
+      </c>
+      <c r="C222" t="s">
+        <v>101</v>
+      </c>
+      <c r="D222" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44011.126967592594</v>
+      </c>
+      <c r="B223" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44011.126979166664</v>
+      </c>
+      <c r="B224" t="s">
+        <v>202</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44011.126979166664</v>
+      </c>
+      <c r="B225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44011.12699074074</v>
+      </c>
+      <c r="B226" t="s">
+        <v>100</v>
+      </c>
+      <c r="C226" t="s">
+        <v>101</v>
+      </c>
+      <c r="D226" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44011.12699074074</v>
+      </c>
+      <c r="B227" t="s">
+        <v>100</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44011.12699074074</v>
+      </c>
+      <c r="B228" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44011.12699074074</v>
+      </c>
+      <c r="B229" t="s">
+        <v>206</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44011.127002314817</v>
+      </c>
+      <c r="B230" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" t="s">
+        <v>101</v>
+      </c>
+      <c r="D230" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44011.127002314817</v>
+      </c>
+      <c r="B231" t="s">
+        <v>100</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44011.127013888887</v>
+      </c>
+      <c r="B232" t="s">
+        <v>208</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44011.127013888887</v>
+      </c>
+      <c r="B233" t="s">
+        <v>209</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44011.127013888887</v>
+      </c>
+      <c r="B234" t="s">
+        <v>100</v>
+      </c>
+      <c r="C234" t="s">
+        <v>101</v>
+      </c>
+      <c r="D234" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44011.127025462964</v>
+      </c>
+      <c r="B235" t="s">
+        <v>100</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44011.127025462964</v>
+      </c>
+      <c r="B236" t="s">
+        <v>211</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44011.127025462964</v>
+      </c>
+      <c r="B237" t="s">
+        <v>212</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44011.12703703704</v>
+      </c>
+      <c r="B238" t="s">
+        <v>100</v>
+      </c>
+      <c r="C238" t="s">
+        <v>101</v>
+      </c>
+      <c r="D238" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44011.12703703704</v>
+      </c>
+      <c r="B239" t="s">
+        <v>100</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44011.12704861111</v>
+      </c>
+      <c r="B240" t="s">
+        <v>214</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44011.12704861111</v>
+      </c>
+      <c r="B241" t="s">
+        <v>215</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44011.127060185187</v>
+      </c>
+      <c r="B242" t="s">
+        <v>100</v>
+      </c>
+      <c r="C242" t="s">
+        <v>101</v>
+      </c>
+      <c r="D242" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44011.127060185187</v>
+      </c>
+      <c r="B243" t="s">
+        <v>100</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44011.127060185187</v>
+      </c>
+      <c r="B244" t="s">
+        <v>217</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44011.127060185187</v>
+      </c>
+      <c r="B245" t="s">
+        <v>218</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44011.127071759256</v>
+      </c>
+      <c r="B246" t="s">
+        <v>100</v>
+      </c>
+      <c r="C246" t="s">
+        <v>101</v>
+      </c>
+      <c r="D246" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44011.127071759256</v>
+      </c>
+      <c r="B247" t="s">
+        <v>100</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44011.127083333333</v>
+      </c>
+      <c r="B248" t="s">
+        <v>220</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44011.127083333333</v>
+      </c>
+      <c r="B249" t="s">
+        <v>221</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44011.12709490741</v>
+      </c>
+      <c r="B250" t="s">
+        <v>100</v>
+      </c>
+      <c r="C250" t="s">
+        <v>101</v>
+      </c>
+      <c r="D250" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44011.12709490741</v>
+      </c>
+      <c r="B251" t="s">
+        <v>100</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44011.12709490741</v>
+      </c>
+      <c r="B252" t="s">
+        <v>223</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44011.12709490741</v>
+      </c>
+      <c r="B253" t="s">
+        <v>224</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44011.127106481479</v>
+      </c>
+      <c r="B254" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" t="s">
+        <v>101</v>
+      </c>
+      <c r="D254" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44011.127106481479</v>
+      </c>
+      <c r="B255" t="s">
+        <v>100</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44011.127118055556</v>
+      </c>
+      <c r="B256" t="s">
+        <v>226</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44011.127118055556</v>
+      </c>
+      <c r="B257" t="s">
+        <v>227</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44011.127118055556</v>
+      </c>
+      <c r="B258" t="s">
+        <v>100</v>
+      </c>
+      <c r="C258" t="s">
+        <v>101</v>
+      </c>
+      <c r="D258" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44011.127129629633</v>
+      </c>
+      <c r="B259" t="s">
+        <v>100</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44011.127129629633</v>
+      </c>
+      <c r="B260" t="s">
+        <v>229</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44011.127129629633</v>
+      </c>
+      <c r="B261" t="s">
+        <v>230</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44011.127141203702</v>
+      </c>
+      <c r="B262" t="s">
+        <v>100</v>
+      </c>
+      <c r="C262" t="s">
+        <v>101</v>
+      </c>
+      <c r="D262" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44011.127141203702</v>
+      </c>
+      <c r="B263" t="s">
+        <v>100</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44011.127152777779</v>
+      </c>
+      <c r="B264" t="s">
+        <v>232</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44011.127152777779</v>
+      </c>
+      <c r="B265" t="s">
+        <v>233</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44011.127152777779</v>
+      </c>
+      <c r="B266" t="s">
+        <v>100</v>
+      </c>
+      <c r="C266" t="s">
+        <v>101</v>
+      </c>
+      <c r="D266" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44011.127152777779</v>
+      </c>
+      <c r="B267" t="s">
+        <v>100</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44011.127164351848</v>
+      </c>
+      <c r="B268" t="s">
+        <v>235</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44011.127164351848</v>
+      </c>
+      <c r="B269" t="s">
+        <v>236</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44011.127175925925</v>
+      </c>
+      <c r="B270" t="s">
+        <v>100</v>
+      </c>
+      <c r="C270" t="s">
+        <v>101</v>
+      </c>
+      <c r="D270" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44011.127175925925</v>
+      </c>
+      <c r="B271" t="s">
+        <v>100</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44011.127175925925</v>
+      </c>
+      <c r="B272" t="s">
+        <v>238</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44011.127187500002</v>
+      </c>
+      <c r="B273" t="s">
+        <v>239</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44011.127187500002</v>
+      </c>
+      <c r="B274" t="s">
+        <v>100</v>
+      </c>
+      <c r="C274" t="s">
+        <v>101</v>
+      </c>
+      <c r="D274" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>44011.127187500002</v>
+      </c>
+      <c r="B275" t="s">
+        <v>100</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44011.127199074072</v>
+      </c>
+      <c r="B276" t="s">
+        <v>241</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44011.127199074072</v>
+      </c>
+      <c r="B277" t="s">
+        <v>242</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44011.127210648148</v>
+      </c>
+      <c r="B278" t="s">
+        <v>100</v>
+      </c>
+      <c r="C278" t="s">
+        <v>101</v>
+      </c>
+      <c r="D278" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>44011.127210648148</v>
+      </c>
+      <c r="B279" t="s">
+        <v>100</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>44011.127210648148</v>
+      </c>
+      <c r="B280" t="s">
+        <v>244</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>44011.127210648148</v>
+      </c>
+      <c r="B281" t="s">
+        <v>245</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>44011.127222222225</v>
+      </c>
+      <c r="B282" t="s">
+        <v>100</v>
+      </c>
+      <c r="C282" t="s">
+        <v>101</v>
+      </c>
+      <c r="D282" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>44011.127222222225</v>
+      </c>
+      <c r="B283" t="s">
+        <v>100</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>44011.127233796295</v>
+      </c>
+      <c r="B284" t="s">
+        <v>247</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>44011.127233796295</v>
+      </c>
+      <c r="B285" t="s">
+        <v>248</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>44011.127233796295</v>
+      </c>
+      <c r="B286" t="s">
+        <v>100</v>
+      </c>
+      <c r="C286" t="s">
+        <v>101</v>
+      </c>
+      <c r="D286" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>44011.127245370371</v>
+      </c>
+      <c r="B287" t="s">
+        <v>100</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>44011.127245370371</v>
+      </c>
+      <c r="B288" t="s">
+        <v>250</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>44011.127245370371</v>
+      </c>
+      <c r="B289" t="s">
+        <v>251</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>44011.127256944441</v>
+      </c>
+      <c r="B290" t="s">
+        <v>100</v>
+      </c>
+      <c r="C290" t="s">
+        <v>101</v>
+      </c>
+      <c r="D290" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>44011.127256944441</v>
+      </c>
+      <c r="B291" t="s">
+        <v>100</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>44011.127256944441</v>
+      </c>
+      <c r="B292" t="s">
+        <v>253</v>
+      </c>
+      <c r="C292" t="s">
+        <v>254</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Project (UiPath)/ToborInc-Files/ReportLocal.xlsx
+++ b/Project (UiPath)/ToborInc-Files/ReportLocal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Workspace\SFIA Project 2\Project (UiPath)\ToborInc-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD80B9-906C-494B-A8DF-68E080A145B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5F17A3-DC43-4CDD-9C4B-C5D9E7F98BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18705" yWindow="7815" windowWidth="17700" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preformance Report (Process 1)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="257">
   <si>
     <t>Date/Time</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>Successfully</t>
+  </si>
+  <si>
+    <t>Checking Email</t>
+  </si>
+  <si>
+    <t>No Emails have been found</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1115,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1135,6 +1141,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44011.144201388888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44011.144201388888</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1144,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0670FE8E-5E75-4B80-A23D-8A45B49A2263}">
   <dimension ref="A1:D292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
